--- a/KeywordDriven.Desktop/TestCases.xlsx
+++ b/KeywordDriven.Desktop/TestCases.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156A7B40-9B7E-42A1-A741-847302FCB1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60012B60-F31A-4A7C-A3E8-79A9690194AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="3048" windowWidth="17280" windowHeight="8964" tabRatio="369" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="369" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Test Steps" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="ActionKeywords">Settings!$A$2:$A$13</definedName>
+    <definedName name="ActionKeywords">Settings!$A$2:$A$15</definedName>
     <definedName name="Browsers">Settings!$B$2:$B$5</definedName>
     <definedName name="LogIn">'Pages Objects'!$B$2:$B$4</definedName>
     <definedName name="Mobile">'Pages Objects'!$D$2:$D$4</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="80">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -268,7 +268,16 @@
     <t>/hierarchy/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.LinearLayout/android.widget.FrameLayout/android.widget.FrameLayout/android.view.ViewGroup/android.view.ViewGroup/android.view.ViewGroup/android.view.ViewGroup/android.view.ViewGroup/android.view.ViewGroup/android.widget.ScrollView/android.view.ViewGroup/android.view.ViewGroup[2]/android.view.ViewGroup[5]/android.widget.Button</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>NavigateBack</t>
+  </si>
+  <si>
+    <t>NavigateForward</t>
+  </si>
+  <si>
+    <t>Navigate Back</t>
+  </si>
+  <si>
+    <t>Navigate Forward</t>
   </si>
 </sst>
 </file>
@@ -790,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -862,41 +871,51 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1056,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -1100,9 +1119,7 @@
       <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -1117,9 +1134,7 @@
       <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>76</v>
-      </c>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
@@ -1133,9 +1148,6 @@
       </c>
       <c r="D4" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1157,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -1218,9 +1230,6 @@
       <c r="G2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
@@ -1238,9 +1247,6 @@
       <c r="G3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
@@ -1264,9 +1270,6 @@
       <c r="G4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -1290,9 +1293,6 @@
       <c r="G5" s="15">
         <v>123456</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
@@ -1314,9 +1314,6 @@
         <v>16</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="13" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -1336,216 +1333,181 @@
       <c r="G7" s="16">
         <v>5</v>
       </c>
-      <c r="H7" s="13" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="13">
+        <v>7</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="13">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="13">
+        <v>9</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="19">
-        <v>7</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="B11" s="19">
+        <v>10</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="16">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="16">
-        <v>2</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="16">
-        <v>3</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>76</v>
-      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="15">
-        <v>123456</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>76</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="16" t="s">
-        <v>76</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="16">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="16">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="15">
+        <v>123456</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="16">
         <v>6</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="16">
-        <v>5</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="19">
-        <v>7</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="13">
-        <v>1</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="13">
-        <v>2</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>35</v>
@@ -1558,60 +1520,43 @@
       <c r="G17" s="16">
         <v>5</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="13">
-        <v>3</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="19">
+        <v>7</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>54</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="16">
-        <v>123456</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1619,23 +1564,18 @@
         <v>51</v>
       </c>
       <c r="B20" s="13">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="16">
         <v>5</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1643,60 +1583,122 @@
         <v>51</v>
       </c>
       <c r="B21" s="13">
+        <v>3</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="13">
+        <v>4</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="16">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="13">
+        <v>5</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="13">
         <v>6</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G24" s="16">
         <v>5</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    </row>
+    <row r="25" spans="1:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B25" s="19">
         <v>7</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18" t="s">
-        <v>76</v>
-      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D15 D17:D21" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18 D20:D24" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>PageNames</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E8 E10:E15 E17:E21" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11 E13:E18 E20:E24" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>INDIRECT(D3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F22" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F25" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>ActionKeywords</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{5FCA561C-2100-4CA2-AB75-AB8D1DF217FD}"/>
-    <hyperlink ref="G10" r:id="rId2" xr:uid="{8849F4DD-DE41-4CEE-B2E3-9FC530CD7BF4}"/>
+    <hyperlink ref="G13" r:id="rId2" xr:uid="{8849F4DD-DE41-4CEE-B2E3-9FC530CD7BF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/KeywordDriven.Desktop/TestCases.xlsx
+++ b/KeywordDriven.Desktop/TestCases.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB64995F-678C-448A-8924-3DFEE1A33C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB5A00F-7656-4A10-AD46-312F412683C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="502" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="502" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="4" r:id="rId1"/>
     <sheet name="Pages Objects" sheetId="3" r:id="rId2"/>
     <sheet name="Locators" sheetId="5" r:id="rId3"/>
-    <sheet name="Test Cases" sheetId="2" r:id="rId4"/>
-    <sheet name="Test Steps" sheetId="1" r:id="rId5"/>
+    <sheet name="TestCases" sheetId="2" r:id="rId4"/>
+    <sheet name="TestSteps" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="ActionKeywords">Settings!$A$2:$A$16</definedName>
@@ -41,9 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
   <si>
-    <t>TestCase ID</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -56,12 +53,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Page Object</t>
-  </si>
-  <si>
     <t>Page Name</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
     <t>Open Chrome Browser</t>
   </si>
   <si>
-    <t>Step No</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -263,9 +251,6 @@
     <t>Assert doodles</t>
   </si>
   <si>
-    <t>AssetElementContains</t>
-  </si>
-  <si>
     <t>//ul[@id='archive-list']/li/div</t>
   </si>
   <si>
@@ -282,6 +267,21 @@
   </si>
   <si>
     <t>Auro</t>
+  </si>
+  <si>
+    <t>PageName</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>StepNo</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>AssertTextPresent</t>
   </si>
 </sst>
 </file>
@@ -786,7 +786,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -800,112 +800,112 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -932,63 +932,63 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1014,90 +1014,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1126,48 +1126,48 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1198,152 +1198,152 @@
     <col min="4" max="4" width="13.7265625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="37.81640625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="23.81640625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="49.81640625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.90625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="10.6328125" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.08984375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="12">
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" s="12">
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="12">
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" s="12">
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" s="12">
         <v>6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" s="14">
         <v>5</v>
@@ -1351,163 +1351,163 @@
     </row>
     <row r="8" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" s="17">
         <v>7</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9" s="14">
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="14">
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" s="14">
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" s="14">
         <v>4</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="14">
         <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" s="14">
         <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="F14" s="12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" s="14">
         <v>7</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G15" s="14">
         <v>5</v>
@@ -1516,18 +1516,18 @@
     </row>
     <row r="16" spans="1:8" ht="14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="17">
         <v>8</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
